--- a/test_data/ec1.xlsx
+++ b/test_data/ec1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aidan/Desktop/github-repos/ECE_Graduation_Validation/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351AE1D-53AF-0044-8A4F-C44EBE4ABCDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEA114-136E-EF4C-B560-E2FA4DAFE0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{CCDFA643-959F-9442-8EA0-FAAE03167BCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
   <si>
     <t>Graduation Checklist</t>
   </si>
@@ -592,9 +592,6 @@
     <t>Tech. Writing</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected Graduation Date (ex. SP24):  </t>
-  </si>
-  <si>
     <t>This is to certify, to the best of my knowledge, that my graduation checklist is correct. I further understand that it is my sole responsibility to verify that this information is documented on my official record with the University Registrar. If this proves not to be true, I understand that my graduation will be delayed.</t>
   </si>
   <si>
@@ -838,6 +835,15 @@
   </si>
   <si>
     <t>Aidan C. McNay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Graduation Term (ex. SP24):  </t>
+  </si>
+  <si>
+    <t>SP24</t>
+  </si>
+  <si>
+    <t>EC</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,6 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D3CE3-D47A-0540-A132-E9BE2E056D06}">
   <dimension ref="A4:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1826,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -1834,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
@@ -1845,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>4</v>
@@ -1857,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -2517,15 +2524,17 @@
     <row r="71" spans="2:8" ht="17" thickBot="1"/>
     <row r="72" spans="2:8" ht="17" thickBot="1">
       <c r="C72" s="31" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="74" spans="2:8" ht="16" customHeight="1">
       <c r="B74" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
@@ -2563,14 +2572,18 @@
     </row>
     <row r="78" spans="2:8" ht="17" thickBot="1">
       <c r="C78" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" s="20"/>
+      <c r="G78" s="55">
+        <v>45263</v>
+      </c>
     </row>
     <row r="79" spans="2:8">
       <c r="C79" s="18"/>
@@ -2581,7 +2594,7 @@
     </row>
     <row r="81" spans="2:8" ht="20" thickBot="1">
       <c r="C81" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -2590,10 +2603,10 @@
     </row>
     <row r="82" spans="2:8" ht="17" thickTop="1">
       <c r="C82" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
@@ -2608,10 +2621,10 @@
     </row>
     <row r="84" spans="2:8">
       <c r="C84" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -2619,10 +2632,10 @@
     </row>
     <row r="85" spans="2:8">
       <c r="C85" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -2630,10 +2643,10 @@
     </row>
     <row r="86" spans="2:8">
       <c r="C86" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -2641,10 +2654,10 @@
     </row>
     <row r="87" spans="2:8">
       <c r="C87" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -2652,10 +2665,10 @@
     </row>
     <row r="88" spans="2:8">
       <c r="C88" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -2663,10 +2676,10 @@
     </row>
     <row r="89" spans="2:8" ht="17" thickBot="1">
       <c r="C89" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="D89" s="43" t="s">
-        <v>80</v>
       </c>
       <c r="E89" s="43"/>
       <c r="F89" s="43"/>
@@ -2675,7 +2688,7 @@
     <row r="90" spans="2:8" ht="17" thickTop="1"/>
     <row r="91" spans="2:8" ht="20" thickBot="1">
       <c r="C91" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -2687,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92" s="39"/>
       <c r="E92" s="39"/>
@@ -2700,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
@@ -2722,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="41"/>
@@ -2735,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="41"/>
@@ -2748,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D97" s="50"/>
       <c r="E97" s="50"/>
@@ -2770,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
